--- a/template/template_kontrak.xlsx
+++ b/template/template_kontrak.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\laporan-kepegawaian\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4EE4DF4A-AB90-4CC7-875B-F47855DC81BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51807408-EB19-4C67-83B9-6FBC4D763057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{AE2571DF-4E57-4829-A652-9B1A865718C8}"/>
   </bookViews>
@@ -70,7 +70,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,6 +82,21 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -123,15 +138,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -451,7 +467,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -465,7 +481,7 @@
     <col min="7" max="9" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -478,32 +494,33 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="4" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="3" t="s">
         <v>9</v>
       </c>
     </row>
